--- a/08_Protect_Mode/06 S位和type域.xlsx
+++ b/08_Protect_Mode/06 S位和type域.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3F8267-D5D6-4A61-971F-D7F1085F6BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2F27C2-644D-4E49-A673-5FCAF0340DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <r>
       <t>1</t>
@@ -169,6 +169,10 @@
   </si>
   <si>
     <t xml:space="preserve">   E:  是否向下(外)拓展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、系统段描述符的type域(门描述符)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
@@ -371,8 +375,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -639,25 +642,6 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -818,25 +802,6 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1109,364 +1074,144 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="5"/>
-    </row>
-    <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K1" s="7"/>
+    </row>
+    <row r="2" spans="2:15" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="10" t="s">
+      <c r="K2" s="7"/>
+      <c r="M2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="5"/>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K3" s="7"/>
+    </row>
+    <row r="4" spans="2:15" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="K4" s="7"/>
       <c r="M4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="15" t="s">
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+      <c r="M5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="12" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K8" s="7"/>
+    </row>
+    <row r="9" spans="2:15" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="K9" s="7"/>
+      <c r="M9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="5"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K10" s="7"/>
       <c r="M10" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="5"/>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K12" s="7"/>
       <c r="M12" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="5"/>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K13" s="7"/>
       <c r="M13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="5"/>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K14" s="7"/>
       <c r="M14" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="5"/>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="7"/>
       <c r="M15" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="5"/>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="K16" s="7"/>
       <c r="M16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="7"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B29" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+    <row r="29" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B29" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1492,70 +1237,70 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1579,7 +1324,7 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>20</v>
       </c>
     </row>
